--- a/data/trans_camb/P14B23-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,46</t>
+          <t>-3,55; 2,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,53</t>
+          <t>-4,38; 0,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 6,59</t>
+          <t>-3,89; 6,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -1,15</t>
+          <t>-9,1; -1,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,8</t>
+          <t>-2,32; 3,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; -1,07</t>
+          <t>-5,63; -0,92</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,98; 164,66</t>
+          <t>-74,91; 152,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,32; 51,68</t>
+          <t>-89,78; 53,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 88,57</t>
+          <t>-34,01; 91,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,45; -18,16</t>
+          <t>-72,09; -17,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 81,2</t>
+          <t>-32,47; 78,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,57; -20,67</t>
+          <t>-70,61; -19,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,64</t>
+          <t>-3,27; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,39</t>
+          <t>-2,27; 3,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,62</t>
+          <t>-6,0; 1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,94</t>
+          <t>-3,79; 3,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,95</t>
+          <t>-3,52; 1,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,67</t>
+          <t>-2,16; 2,89</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 92,8</t>
+          <t>-68,26; 100,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,74; 165,48</t>
+          <t>-47,99; 171,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 19,98</t>
+          <t>-47,84; 18,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 47,32</t>
+          <t>-29,56; 40,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 16,25</t>
+          <t>-42,35; 18,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 46,64</t>
+          <t>-25,41; 53,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; -0,22</t>
+          <t>-4,23; -0,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 6,42</t>
+          <t>-0,17; 6,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 2,7</t>
+          <t>-4,64; 2,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,95</t>
+          <t>-3,43; 3,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,7</t>
+          <t>-3,51; 0,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,52</t>
+          <t>-0,76; 3,84</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,6; 24,83</t>
+          <t>-94,05; 10,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 409,12</t>
+          <t>-15,07; 321,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,94; 63,21</t>
+          <t>-55,96; 64,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 68,85</t>
+          <t>-39,11; 72,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,5; 21,34</t>
+          <t>-59,73; 28,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 102,05</t>
+          <t>-13,53; 113,09</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,2</t>
+          <t>-0,59; 2,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,05</t>
+          <t>2,26; 8,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -0,64</t>
+          <t>-7,76; -0,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,44</t>
+          <t>-6,04; 2,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,14</t>
+          <t>-3,73; 0,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,1</t>
+          <t>-1,01; 4,16</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,06; —</t>
+          <t>99,24; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,91; -7,98</t>
+          <t>-69,94; -1,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 35,8</t>
+          <t>-55,33; 34,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,46; 9,51</t>
+          <t>-61,52; 15,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 114,73</t>
+          <t>-17,25; 112,5</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,57</t>
+          <t>-2,3; 5,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 0,4</t>
+          <t>-5,43; 0,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,84; -1,83</t>
+          <t>-13,91; -1,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-18,59; -7,82</t>
+          <t>-18,3; -7,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,01</t>
+          <t>-6,86; 0,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -4,36</t>
+          <t>-10,52; -4,3</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 338,84</t>
+          <t>-47,46; 388,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-93,61; 72,95</t>
+          <t>-92,8; 55,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-71,04; -11,56</t>
+          <t>-70,34; -13,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-89,13; -62,31</t>
+          <t>-89,74; -62,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,67; 1,46</t>
+          <t>-56,65; 3,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,87; -52,93</t>
+          <t>-85,01; -56,09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -0,19</t>
+          <t>-5,21; -0,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,3</t>
+          <t>-1,03; 5,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 6,08</t>
+          <t>-3,87; 6,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 2,08</t>
+          <t>-5,89; 2,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 2,28</t>
+          <t>-3,17; 2,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,92</t>
+          <t>-2,24; 2,99</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-94,03; 43,92</t>
+          <t>-100,0; 41,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 268,67</t>
+          <t>-34,06; 277,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 94,56</t>
+          <t>-35,57; 105,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-53,2; 36,09</t>
+          <t>-52,04; 46,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 52,61</t>
+          <t>-43,3; 53,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 69,61</t>
+          <t>-30,32; 67,43</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,01</t>
+          <t>-2,95; 0,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,97</t>
+          <t>0,16; 4,75</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,79</t>
+          <t>-4,03; 0,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,82</t>
+          <t>-2,92; 5,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,9; -0,13</t>
+          <t>-3,16; -0,08</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,27</t>
+          <t>-0,75; 4,35</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-85,18; 15,82</t>
+          <t>-85,08; 20,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 283,45</t>
+          <t>-4,48; 258,25</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-54,52; 20,84</t>
+          <t>-58,1; 19,9</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 116,44</t>
+          <t>-39,61; 105,2</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-57,98; 0,75</t>
+          <t>-61,36; -1,41</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 117,7</t>
+          <t>-14,05; 118,04</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,79</t>
+          <t>-1,04; 1,65</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,6</t>
+          <t>-1,79; 1,39</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,08</t>
+          <t>-2,13; 2,81</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,14</t>
+          <t>-1,39; 3,39</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,86</t>
+          <t>-1,01; 1,77</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,62</t>
+          <t>-1,97; 1,58</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 153,85</t>
+          <t>-42,54; 147,11</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-64,71; 115,65</t>
+          <t>-65,39; 102,98</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 65,0</t>
+          <t>-29,09; 58,93</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 61,98</t>
+          <t>-19,03; 69,06</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 55,24</t>
+          <t>-21,42; 53,44</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 46,51</t>
+          <t>-41,19; 44,55</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,18</t>
+          <t>-1,27; 0,25</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,07</t>
+          <t>0,1; 2,1</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -0,02</t>
+          <t>-2,56; -0,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,45</t>
+          <t>-2,49; 0,45</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,6; -0,2</t>
+          <t>-1,64; -0,15</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,97</t>
+          <t>-0,78; 1,0</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 9,1</t>
+          <t>-42,96; 13,37</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>3,76; 99,01</t>
+          <t>3,49; 99,1</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -0,18</t>
+          <t>-29,62; -0,58</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 6,02</t>
+          <t>-28,88; 6,4</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-28,7; -4,15</t>
+          <t>-28,95; -3,12</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 19,28</t>
+          <t>-13,6; 20,39</t>
         </is>
       </c>
     </row>
